--- a/medicine/Mort/Liste_des_monuments_aux_morts_du_16e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_16e_arrondissement_de_Paris.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_du_16e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_16e_arrondissement_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article recense les monuments aux morts du 16e arrondissement de Paris, en France.
@@ -512,9 +524,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Monument aux Fusillés de la cascade du bois de Boulogne, Garofalo (bois de Boulogne)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Monument aux Fusillés de la cascade du bois de Boulogne, Garofalo (bois de Boulogne)
 Monument aux combattants polonais pour la défense et la libération de la France, André Greck (1978, place de Varsovie).</t>
         </is>
       </c>
